--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763091.34246096</v>
+        <v>1838621.012125764</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>107.301303802437</v>
+        <v>56.65238693340335</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.91242278797893</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>356.681260877744</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>12.84155914652136</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>240.3636389428399</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>67.33783650784304</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>255.729286927289</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5297567177294</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>194.5130075535447</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.1707519847952</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.1349129199715</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68000121430573</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>82.42276491551934</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>88.23851788996329</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>115.0901731175179</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>238.2336684417116</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151925</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>60.54139430664206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93.51195207172077</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>24.32337253107693</v>
       </c>
       <c r="S40" t="n">
-        <v>122.6519788371605</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>122.2151751544601</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>76.27978370493997</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="E2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="F2" t="n">
-        <v>580.2919452781746</v>
+        <v>856.3261431522387</v>
       </c>
       <c r="G2" t="n">
-        <v>162.3281371763615</v>
+        <v>438.3623350504256</v>
       </c>
       <c r="H2" t="n">
-        <v>162.3281371763615</v>
+        <v>111.1676150864284</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="C4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="D4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="E4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="F4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="G4" t="n">
-        <v>70.0161361516563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>70.0161361516563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0161361516563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.0161361516563</v>
+        <v>154.8539665087374</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>825.2129885066831</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>825.2129885066831</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>414.2270837170756</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.177819153049</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.177819153049</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.543152125112</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.543152125112</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.480264781541</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1781.711609511427</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1408.245851250347</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1018.106519274536</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4808,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.80799051105</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>383.5045402329973</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>383.5045402329973</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>383.5045402329973</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>383.5045402329973</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="11">
@@ -5039,7 +5041,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5121,10 +5123,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
@@ -5136,10 +5138,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5200,10 +5202,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5288,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126483</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383447</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0071030383447</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>675.0071030383447</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>527.0940094559516</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.0940094559516</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>358.9186877757721</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>208.5006793237154</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383447</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211724</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011341</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>147.8584176420752</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>147.8584176420752</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>887.3355486677287</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>597.9183786307682</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X19" t="n">
-        <v>597.9183786307682</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>4122.655272935784</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>4122.655272935784</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3972.538633523448</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.001039296941</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="W22" t="n">
-        <v>896.58386925998</v>
+        <v>4571.437402977331</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619627</v>
+        <v>4343.447852079314</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184325</v>
+        <v>4122.655272935784</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555206</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>1089.278254829646</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>920.3420719017392</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>770.2254324894035</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>622.3123389070104</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>475.4223914091</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028583</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1258.27620142486</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1003.591713218973</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W25" t="n">
-        <v>714.1745431820127</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839954</v>
+        <v>1270.926719659886</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>1270.926719659886</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6248,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6309,16 +6311,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281178</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494736</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.26091728885</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3492.843747251889</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6546,7 +6548,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,16 +6715,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929847</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.02050893291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727023</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690063</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6947,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.0640635030469</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>748.12788057514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>598.0112411628043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>450.0981475804111</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>303.2082000825008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>303.2082000825008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333287</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333287</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1098.712528333287</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.712528333287</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.712528333287</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1474.347207395198</v>
       </c>
       <c r="S40" t="n">
-        <v>1375.025382843599</v>
+        <v>1474.347207395198</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1474.347207395198</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>1474.347207395198</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>1219.662719189311</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7396,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1375.466598684711</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,10 +7672,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>174.2673780309323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>174.2673780309323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>174.2673780309323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352016</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776764</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2484934794767213</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>98.77891544756463</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4576421095223</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>64.01119773104983</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>163.8991254338647</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>51.40339534585966</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>48.00368395686573</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>225.9816040299489</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25123,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>55.40187629581536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>85.64097987271587</v>
       </c>
       <c r="S40" t="n">
-        <v>75.26883114644278</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>103.494480234577</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>90.21378475843761</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.777659022</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773393</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="O4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26481,34 @@
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232977</v>
+        <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
+        <v>267469.3854912469</v>
+      </c>
+      <c r="D6" t="n">
         <v>267469.3854912472</v>
       </c>
-      <c r="D6" t="n">
-        <v>267469.3854912471</v>
-      </c>
       <c r="E6" t="n">
-        <v>-145242.0682843248</v>
+        <v>-145242.0682843255</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.9681925711</v>
+        <v>379917.968192571</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925711</v>
+        <v>379917.9681925712</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.968192571</v>
+        <v>379917.9681925713</v>
       </c>
       <c r="I6" t="n">
-        <v>379917.9681925713</v>
+        <v>379917.9681925706</v>
       </c>
       <c r="J6" t="n">
         <v>203494.748999978</v>
@@ -26549,19 +26551,19 @@
         <v>379917.968192571</v>
       </c>
       <c r="L6" t="n">
+        <v>379917.9681925713</v>
+      </c>
+      <c r="M6" t="n">
+        <v>245116.9529587339</v>
+      </c>
+      <c r="N6" t="n">
+        <v>379917.9681925713</v>
+      </c>
+      <c r="O6" t="n">
         <v>379917.9681925711</v>
       </c>
-      <c r="M6" t="n">
-        <v>245116.952958734</v>
-      </c>
-      <c r="N6" t="n">
-        <v>379917.9681925711</v>
-      </c>
-      <c r="O6" t="n">
-        <v>379917.968192571</v>
-      </c>
       <c r="P6" t="n">
-        <v>379917.9681925712</v>
+        <v>379917.9681925708</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.63001244242423</v>
+        <v>95.2789293114579</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>67.40792741756165</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>29.28753640055807</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>57.10290914305097</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>41.63684342829033</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>11.77400438098806</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.49591467042819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>339.5382092338684</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>93.51168179012399</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.904205928839815</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>30.52209790453955</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33029,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33050,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33266,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33287,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
@@ -35498,19 +35500,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35653,22 +35655,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
@@ -35735,16 +35737,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337006</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382549</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1838621.012125764</v>
+        <v>1831603.997234053</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.65238693340335</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.84155914652136</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>79.78598944289533</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>240.3636389428399</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>67.33783650784304</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>168.8662234075638</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5297567177294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.8576818890146845</v>
       </c>
       <c r="H19" t="n">
-        <v>50.1349129199715</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.42276491551934</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>58.6873341977881</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.0901731175179</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151925</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>147.1163355383938</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002185</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>30.30353110195383</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.295072325547696</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.00555962229928</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.32337253107693</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.37988086577769</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>856.3261431522387</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>438.3623350504256</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>111.1676150864284</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.8539665087374</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>154.8539665087374</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>154.8539665087374</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>154.8539665087374</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>154.8539665087374</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2684.177819153049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2684.177819153049</v>
+        <v>2616.557182490045</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.543152125112</v>
+        <v>2397.922515462108</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.543152125112</v>
+        <v>2144.1607301002</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.480264781541</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.711609511427</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.245851250347</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>485.3374297187173</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>485.3374297187173</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563625</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2526.577148182299</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2526.577148182299</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2526.577148182299</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>409.5384547146243</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>409.5384547146243</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,16 +5056,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336716</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,13 +5266,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,46 +5281,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="17">
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>613.8011874802282</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C19" t="n">
-        <v>444.8650045523214</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D19" t="n">
-        <v>294.7483651399856</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E19" t="n">
-        <v>294.7483651399856</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="F19" t="n">
-        <v>147.8584176420752</v>
+        <v>98.08343680272492</v>
       </c>
       <c r="G19" t="n">
-        <v>147.8584176420752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>795.449652310468</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="20">
@@ -5749,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4122.655272935784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4122.655272935784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3972.538633523448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014291</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014291</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4571.437402977331</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4343.447852079314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4122.655272935784</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555206</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1089.278254829646</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="C25" t="n">
-        <v>920.3420719017392</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="D25" t="n">
-        <v>770.2254324894035</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="E25" t="n">
-        <v>622.3123389070104</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>475.4223914091</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659886</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y25" t="n">
-        <v>1270.926719659886</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8564518307256</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>646.6490309742558</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8564518307256</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,22 +6961,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.587914673511</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1495.587914673511</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1206.459275887069</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8045051785809</v>
+        <v>607.426577713243</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506741</v>
+        <v>438.4903947853361</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>438.4903947853361</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>290.577301202943</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>143.6873537050326</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1474.347207395198</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1474.347207395198</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1474.347207395198</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1474.347207395198</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1219.662719189311</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>930.2455491523508</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X40" t="n">
-        <v>930.2455491523508</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4529700088207</v>
+        <v>789.0750425434827</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1479.340633319743</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1479.340633319743</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1479.340633319743</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1479.340633319743</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1224.656145113856</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>935.2389750768955</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>707.2494241788781</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,52 +7645,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776764</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503156</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298008</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>173.3651261629883</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>106.7859038614955</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>165.6358865743629</v>
       </c>
       <c r="H19" t="n">
-        <v>98.77891544756463</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>64.01119773104983</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>87.74662844878108</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.40339534585966</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338488</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>71.46831781370096</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338477</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>136.943289996674</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>194.6257376580556</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>120.4880088410783</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>85.64097987271587</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>90.58447153801509</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912469</v>
+        <v>267469.3854912472</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912472</v>
+        <v>267469.3854912474</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.0682843255</v>
+        <v>-146216.659544047</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925712</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="I6" t="n">
-        <v>379917.9681925706</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="J6" t="n">
-        <v>203494.748999978</v>
+        <v>202520.1577402566</v>
       </c>
       <c r="K6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="L6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.9529587339</v>
+        <v>244142.3616990122</v>
       </c>
       <c r="N6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.9681925708</v>
+        <v>378943.3769328493</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>95.2789293114579</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67.40792741756165</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.63684342829033</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>94.62972336607621</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>11.77400438098806</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5382092338684</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>82.35794410072555</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.904205928839815</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337006</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831603.997234053</v>
+        <v>1836543.260083086</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>104.8161677931376</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.11374845278244</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.78598944289533</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>6.54727573039343</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>26.53815412835749</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>168.8662234075638</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8576818890146845</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.6873341977881</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>147.1163355383938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>43.03801681746327</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30.30353110195383</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>3.295072325547696</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>73.68779321992507</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.00555962229928</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.37988086577769</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>173.7413028445388</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>159.8178987831297</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>159.8178987831297</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2616.557182490045</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.922515462108</v>
+        <v>2690.535681189542</v>
       </c>
       <c r="U5" t="n">
-        <v>2144.1607301002</v>
+        <v>2436.773895827634</v>
       </c>
       <c r="V5" t="n">
-        <v>1813.097842756629</v>
+        <v>2105.711008484063</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>2105.711008484063</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>94.67260217304374</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2526.577148182299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2526.577148182299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2526.577148182299</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2153.11138992122</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>751.4342788065931</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>601.3176393942573</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>453.4045458118642</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>306.5145983139538</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>138.3392766337744</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405893</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.8871334832924</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>100.8871334832924</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>100.8871334832924</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>100.8871334832924</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F16" t="n">
-        <v>100.8871334832924</v>
+        <v>147.0975172378155</v>
       </c>
       <c r="G16" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5475,13 +5475,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>503.3281774570622</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.5355983135321</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.9733843006353</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C19" t="n">
-        <v>244.9733843006353</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D19" t="n">
-        <v>244.9733843006353</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E19" t="n">
-        <v>244.9733843006353</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="F19" t="n">
-        <v>98.08343680272492</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.9733843006353</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.6725486937866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>324.6725486937866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>324.6725486937866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>727.1135926675564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1354.17636097712</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.759190940159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>425.8564518307256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>874.6385818722731</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>646.6490309742558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.8564518307256</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.1367719529251</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1495.587914673511</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1495.587914673511</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1206.459275887069</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>951.7747876811821</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W37" t="n">
-        <v>951.7747876811821</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X37" t="n">
-        <v>723.7852367831648</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y37" t="n">
-        <v>723.7852367831648</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.426577713243</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>438.4903947853361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>438.4903947853361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>290.577301202943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>143.6873537050326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1479.340633319743</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1479.340633319743</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1479.340633319743</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1479.340633319743</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1224.656145113856</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>935.2389750768955</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,13 +7642,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>180.0237016735878</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>108.2028650457825</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.3651261629883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>106.7859038614955</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6358865743629</v>
+        <v>2.126008749765674</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>87.74662844878108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.46831781370096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,10 +24894,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.5466365346315</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>136.943289996674</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6257376580556</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8968601321697</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>120.4880088410783</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.58447153801509</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="14">
@@ -26316,16 +26316,16 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117845</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26334,25 +26334,25 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
+        <v>267469.3854912468</v>
+      </c>
+      <c r="D6" t="n">
         <v>267469.3854912472</v>
       </c>
-      <c r="D6" t="n">
-        <v>267469.3854912474</v>
-      </c>
       <c r="E6" t="n">
-        <v>-146216.659544047</v>
+        <v>-145339.5274102973</v>
       </c>
       <c r="F6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="G6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="H6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="I6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="J6" t="n">
-        <v>202520.1577402566</v>
+        <v>203397.2898740059</v>
       </c>
       <c r="K6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="L6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="M6" t="n">
-        <v>244142.3616990122</v>
+        <v>245019.4938327619</v>
       </c>
       <c r="N6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.509066599</v>
       </c>
       <c r="O6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="P6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>47.11514845172367</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172357</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,10 +27666,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>94.62972336607621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.9010446272644</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.3931621165038</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>82.35794410072555</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349858</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>429.281406629612</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
